--- a/temp_v2.xlsx
+++ b/temp_v2.xlsx
@@ -572,22 +572,22 @@
         </is>
       </c>
       <c r="C2" s="7" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E2" s="7" t="n">
         <v>0.2</v>
       </c>
-      <c r="D2" s="7" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="E2" s="7" t="n">
-        <v>0.8</v>
-      </c>
       <c r="F2" s="7" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="G2" s="7" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H2" s="7" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I2" s="13" t="n">
         <v>4</v>
@@ -603,22 +603,22 @@
         </is>
       </c>
       <c r="C3" s="7" t="n">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="D3" s="7" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="E3" s="7" t="n">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="F3" s="7" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="G3" s="7" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="H3" s="7" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="I3" s="13" t="n">
         <v>4</v>
@@ -637,19 +637,19 @@
         <v>0.4</v>
       </c>
       <c r="D4" s="7" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="E4" s="7" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F4" s="7" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G4" s="7" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H4" s="7" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="I4" s="13" t="n">
         <v>4</v>
@@ -665,22 +665,22 @@
         </is>
       </c>
       <c r="C5" s="7" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="D5" s="7" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="E5" s="7" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="F5" s="7" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="G5" s="7" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="H5" s="7" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="I5" s="13" t="n">
         <v>6</v>
@@ -696,22 +696,22 @@
         </is>
       </c>
       <c r="C6" s="7" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="D6" s="7" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="E6" s="7" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F6" s="7" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G6" s="7" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H6" s="7" t="n">
         <v>1.3</v>
-      </c>
-      <c r="H6" s="7" t="n">
-        <v>1.4</v>
       </c>
       <c r="I6" s="13" t="n">
         <v>5</v>
@@ -727,22 +727,22 @@
         </is>
       </c>
       <c r="C7" s="7" t="n">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="D7" s="7" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E7" s="7" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F7" s="7" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="G7" s="7" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H7" s="7" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="I7" s="13" t="n">
         <v>5</v>
@@ -761,19 +761,19 @@
         <v>0.3</v>
       </c>
       <c r="D8" s="7" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E8" s="7" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="F8" s="7" t="n">
         <v>0.5</v>
       </c>
       <c r="G8" s="7" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H8" s="7" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="I8" s="13" t="n">
         <v>5</v>
@@ -789,22 +789,22 @@
         </is>
       </c>
       <c r="C9" s="7" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="D9" s="7" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="E9" s="7" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="F9" s="7" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="G9" s="7" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H9" s="7" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I9" s="13" t="n">
         <v>4</v>
@@ -820,22 +820,22 @@
         </is>
       </c>
       <c r="C10" s="7" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="D10" s="7" t="n">
         <v>0.1</v>
       </c>
       <c r="E10" s="7" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="F10" s="7" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G10" s="7" t="n">
         <v>0.5</v>
       </c>
-      <c r="G10" s="7" t="n">
-        <v>1.5</v>
-      </c>
       <c r="H10" s="7" t="n">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="I10" s="13" t="n">
         <v>3</v>
@@ -851,22 +851,22 @@
         </is>
       </c>
       <c r="C11" s="7" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D11" s="7" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E11" s="7" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F11" s="7" t="n">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="G11" s="7" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="H11" s="7" t="n">
-        <v>0.2</v>
+        <v>1.3</v>
       </c>
       <c r="I11" s="13" t="n">
         <v>5</v>
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="C12" s="7" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="D12" s="7" t="n">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="E12" s="7" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="F12" s="7" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="G12" s="7" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="H12" s="7" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="I12" s="13" t="n">
         <v>4</v>
@@ -913,22 +913,22 @@
         </is>
       </c>
       <c r="C13" s="7" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="D13" s="7" t="n">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="E13" s="7" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="F13" s="7" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="G13" s="7" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="H13" s="7" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="I13" s="13" t="n">
         <v>6</v>
@@ -944,19 +944,19 @@
         </is>
       </c>
       <c r="C14" s="7" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="D14" s="7" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="E14" s="7" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="F14" s="7" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="G14" s="7" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H14" s="7" t="n">
         <v>1.6</v>
@@ -975,22 +975,22 @@
         </is>
       </c>
       <c r="C15" s="7" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="D15" s="7" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="E15" s="7" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="F15" s="7" t="n">
         <v>0.1</v>
       </c>
       <c r="G15" s="7" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="H15" s="7" t="n">
-        <v>0.1</v>
+        <v>1.3</v>
       </c>
       <c r="I15" s="13" t="n">
         <v>4</v>
@@ -1006,22 +1006,22 @@
         </is>
       </c>
       <c r="C16" s="7" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="D16" s="7" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="E16" s="7" t="n">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="F16" s="7" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="G16" s="7" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H16" s="7" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="I16" s="13" t="n">
         <v>4</v>
@@ -1037,22 +1037,22 @@
         </is>
       </c>
       <c r="C17" s="7" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="D17" s="7" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="E17" s="7" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="F17" s="7" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="G17" s="7" t="n">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="H17" s="7" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="I17" s="13" t="n">
         <v>5</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C18" s="7" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="D18" s="7" t="n">
         <v>0.4</v>
       </c>
       <c r="E18" s="7" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F18" s="7" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="G18" s="7" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="H18" s="7" t="n">
         <v>0.2</v>
@@ -1099,22 +1099,22 @@
         </is>
       </c>
       <c r="C19" s="7" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="D19" s="7" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E19" s="7" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="F19" s="7" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="G19" s="7" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H19" s="7" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I19" s="13" t="n">
         <v>6</v>
@@ -1133,19 +1133,19 @@
         <v>0.1</v>
       </c>
       <c r="D20" s="7" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="E20" s="7" t="n">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="F20" s="7" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="G20" s="7" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="H20" s="7" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="I20" s="13" t="n">
         <v>5</v>
@@ -1161,22 +1161,22 @@
         </is>
       </c>
       <c r="C21" s="7" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="D21" s="7" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="E21" s="7" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="F21" s="7" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="G21" s="7" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="H21" s="7" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="I21" s="13" t="n">
         <v>7</v>
@@ -1192,22 +1192,22 @@
         </is>
       </c>
       <c r="C22" s="7" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="D22" s="7" t="n">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="E22" s="7" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="F22" s="7" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="G22" s="7" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H22" s="7" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="I22" s="13" t="n">
         <v>4</v>
@@ -1223,22 +1223,22 @@
         </is>
       </c>
       <c r="C23" s="7" t="n">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="D23" s="7" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="E23" s="7" t="n">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="F23" s="7" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="G23" s="8" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H23" s="7" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="I23" s="13" t="n">
         <v>4</v>
@@ -1254,22 +1254,22 @@
         </is>
       </c>
       <c r="C24" s="7" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="D24" s="7" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="E24" s="7" t="n">
         <v>0.1</v>
       </c>
       <c r="F24" s="7" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="G24" s="7" t="n">
         <v>1.1</v>
       </c>
       <c r="H24" s="7" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="I24" s="13" t="n">
         <v>4</v>
@@ -1285,22 +1285,22 @@
         </is>
       </c>
       <c r="C25" s="7" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="D25" s="7" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E25" s="7" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="F25" s="7" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="G25" s="8" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="H25" s="7" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="I25" s="13" t="n">
         <v>5</v>
@@ -1316,22 +1316,22 @@
         </is>
       </c>
       <c r="C26" s="7" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="D26" s="7" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="E26" s="7" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="F26" s="7" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="G26" s="7" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="H26" s="7" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="I26" s="13" t="n">
         <v>6</v>
@@ -1347,22 +1347,22 @@
         </is>
       </c>
       <c r="C27" s="7" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="D27" s="7" t="n">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="E27" s="7" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F27" s="7" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="G27" s="7" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="H27" s="7" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="I27" s="13" t="n">
         <v>5</v>
@@ -1378,22 +1378,22 @@
         </is>
       </c>
       <c r="C28" s="7" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D28" s="7" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="E28" s="7" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="F28" s="7" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G28" s="7" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="H28" s="7" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="I28" s="13" t="n">
         <v>6</v>
@@ -1412,19 +1412,19 @@
         <v>0.7</v>
       </c>
       <c r="D29" s="7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E29" s="7" t="n">
         <v>0.2</v>
       </c>
-      <c r="E29" s="7" t="n">
-        <v>0.8</v>
-      </c>
       <c r="F29" s="7" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="G29" s="8" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H29" s="7" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="I29" s="13" t="n">
         <v>4</v>
@@ -1440,10 +1440,10 @@
         </is>
       </c>
       <c r="C30" s="7" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="D30" s="7" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="E30" s="7" t="n">
         <v>0.7</v>
@@ -1455,7 +1455,7 @@
         <v>3.1</v>
       </c>
       <c r="H30" s="7" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="I30" s="13" t="n">
         <v>7</v>
@@ -1471,22 +1471,22 @@
         </is>
       </c>
       <c r="C31" s="7" t="n">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="D31" s="7" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="E31" s="7" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="F31" s="7" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="G31" s="7" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="H31" s="8" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="I31" s="13" t="n">
         <v>5</v>
@@ -1502,22 +1502,22 @@
         </is>
       </c>
       <c r="C32" s="7" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="D32" s="7" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="E32" s="7" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="F32" s="7" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="G32" s="7" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="H32" s="7" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="I32" s="13" t="n">
         <v>5</v>
@@ -1533,22 +1533,22 @@
         </is>
       </c>
       <c r="C33" s="7" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="D33" s="7" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="E33" s="7" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="F33" s="7" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="G33" s="7" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="H33" s="8" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="I33" s="13" t="n">
         <v>6</v>
@@ -1564,22 +1564,22 @@
         </is>
       </c>
       <c r="C34" s="7" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="D34" s="7" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="E34" s="7" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="F34" s="7" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="G34" s="7" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="H34" s="7" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="I34" s="13" t="n">
         <v>5</v>
@@ -1595,22 +1595,22 @@
         </is>
       </c>
       <c r="C35" s="7" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="D35" s="7" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="E35" s="7" t="n">
         <v>0.3</v>
       </c>
       <c r="F35" s="7" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="G35" s="7" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="H35" s="7" t="n">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="I35" s="13" t="n">
         <v>4</v>
@@ -1626,22 +1626,22 @@
         </is>
       </c>
       <c r="C36" s="7" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D36" s="7" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="E36" s="7" t="n">
         <v>0.5</v>
       </c>
       <c r="F36" s="7" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="G36" s="7" t="n">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="H36" s="7" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="I36" s="13" t="n">
         <v>5</v>
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="C37" s="7" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="D37" s="7" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="E37" s="7" t="n">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="F37" s="7" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="G37" s="7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H37" s="7" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="I37" s="13" t="n">
         <v>4</v>
@@ -1688,22 +1688,22 @@
         </is>
       </c>
       <c r="C38" s="7" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="D38" s="7" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="E38" s="7" t="n">
         <v>0.1</v>
       </c>
       <c r="F38" s="7" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="G38" s="7" t="n">
         <v>1.1</v>
       </c>
       <c r="H38" s="7" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="I38" s="13" t="n">
         <v>4</v>
@@ -1719,22 +1719,22 @@
         </is>
       </c>
       <c r="C39" s="7" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="D39" s="7" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="E39" s="7" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="F39" s="7" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="G39" s="7" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H39" s="8" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="I39" s="13" t="n">
         <v>4</v>
@@ -1750,22 +1750,22 @@
         </is>
       </c>
       <c r="C40" s="7" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="D40" s="7" t="n">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="E40" s="7" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="F40" s="7" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="G40" s="7" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H40" s="7" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="I40" s="13" t="n">
         <v>3</v>
@@ -1781,22 +1781,22 @@
         </is>
       </c>
       <c r="C41" s="7" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="D41" s="7" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E41" s="7" t="n">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="F41" s="7" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="G41" s="7" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H41" s="7" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="I41" s="13" t="n">
         <v>4</v>
@@ -1815,19 +1815,19 @@
         <v>0.7</v>
       </c>
       <c r="D42" s="7" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="E42" s="7" t="n">
         <v>0.1</v>
       </c>
       <c r="F42" s="7" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="G42" s="7" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H42" s="7" t="n">
         <v>1.6</v>
-      </c>
-      <c r="H42" s="7" t="n">
-        <v>0.3</v>
       </c>
       <c r="I42" s="13" t="n">
         <v>4</v>
@@ -1843,22 +1843,22 @@
         </is>
       </c>
       <c r="C43" s="7" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="D43" s="7" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="E43" s="7" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="F43" s="7" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="G43" s="7" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H43" s="7" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="I43" s="13" t="n">
         <v>3</v>
@@ -1874,22 +1874,22 @@
         </is>
       </c>
       <c r="C44" s="9" t="n">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="D44" s="9" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="E44" s="9" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="F44" s="9" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="G44" s="9" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H44" s="9" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="I44" s="13" t="n">
         <v>4</v>
@@ -1905,19 +1905,19 @@
         </is>
       </c>
       <c r="C45" s="9" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="D45" s="9" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="E45" s="9" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F45" s="9" t="n">
         <v>0.6</v>
       </c>
       <c r="G45" s="9" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="H45" s="10" t="n">
         <v>1.4</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C46" s="9" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="D46" s="9" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="E46" s="9" t="n">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="F46" s="9" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="G46" s="9" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="H46" s="9" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="I46" s="13" t="n">
         <v>6</v>
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="C47" s="9" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="D47" s="9" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="E47" s="9" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="F47" s="9" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="G47" s="9" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="H47" s="9" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="I47" s="13" t="n">
         <v>6</v>
@@ -2007,13 +2007,13 @@
         <v>0.4</v>
       </c>
       <c r="F48" s="12" t="n">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="G48" s="12" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="H48" s="12" t="n">
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
       <c r="I48" s="12" t="n">
         <v>4</v>
